--- a/result.xlsx
+++ b/result.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -10,12 +10,12 @@
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{135767D3-7C68-4831-A688-EC6F184DB9B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191029" fullCalcOnLoad="true"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="175" uniqueCount="8">
   <si>
     <t>name</t>
   </si>
@@ -53,12 +53,18 @@
   <si>
     <t>tElapsed</t>
   </si>
+  <si>
+    <t>Simulated Annealing</t>
+  </si>
+  <si>
+    <t>Globalsearch</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -88,7 +94,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -103,14 +109,16 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -129,7 +137,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -246,7 +254,7 @@
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:gradFill rotWithShape="1">
+        <a:gradFill rotWithShape="true">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
@@ -270,9 +278,9 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin ang="5400000" scaled="false"/>
         </a:gradFill>
-        <a:gradFill rotWithShape="1">
+        <a:gradFill rotWithShape="true">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
@@ -296,7 +304,7 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin ang="5400000" scaled="false"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
@@ -331,7 +339,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="false">
               <a:srgbClr val="000000">
                 <a:alpha val="63000"/>
               </a:srgbClr>
@@ -349,7 +357,7 @@
             <a:satMod val="170000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:gradFill rotWithShape="1">
+        <a:gradFill rotWithShape="true">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
@@ -374,7 +382,7 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin ang="5400000" scaled="false"/>
         </a:gradFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
@@ -390,33 +398,34 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:H14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="true" workbookViewId="0">
       <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="19.5546875" customWidth="1"/>
-    <col min="2" max="3" width="14.44140625" customWidth="1"/>
-    <col min="4" max="4" width="15.5546875" customWidth="1"/>
-    <col min="5" max="5" width="16.33203125" customWidth="1"/>
-    <col min="6" max="6" width="10.6640625" customWidth="1"/>
+    <col min="1" max="1" width="17.33203125" customWidth="true"/>
+    <col min="2" max="2" width="13.44140625" customWidth="true"/>
+    <col min="4" max="4" width="15.21875" customWidth="true"/>
+    <col min="5" max="5" width="15.88671875" customWidth="true"/>
+    <col min="6" max="6" width="10.5546875" customWidth="true"/>
+    <col min="3" max="3" width="13.44140625" customWidth="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="0" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="0" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="0" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="0" t="s">
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
@@ -426,23 +435,271 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="2" x14ac:dyDescent="0.3">
+      <c r="A2" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="0">
+        <v>299206.89393604256</v>
+      </c>
+      <c r="C2" s="0">
+        <v>301016.37545857765</v>
+      </c>
+      <c r="D2" s="0">
+        <v>4.6297058258222692e-08</v>
+      </c>
+      <c r="E2" s="0">
+        <v>-2.3089983062774421e-08</v>
+      </c>
+      <c r="F2" s="0">
+        <v>6.4157536999999998</v>
+      </c>
       <c r="H2" s="2"/>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="3" x14ac:dyDescent="0.3">
+      <c r="A3" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="0">
+        <v>294400.90373782179</v>
+      </c>
+      <c r="C3" s="0">
+        <v>306721.38933593151</v>
+      </c>
+      <c r="D3" s="0">
+        <v>4.6283764553415088e-08</v>
+      </c>
+      <c r="E3" s="0">
+        <v>-2.3076689357966816e-08</v>
+      </c>
+      <c r="F3" s="0">
+        <v>12.685788799999999</v>
+      </c>
       <c r="H3" s="2"/>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="4" x14ac:dyDescent="0.3">
+      <c r="A4" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="0">
+        <v>299858.33245205838</v>
+      </c>
+      <c r="C4" s="0">
+        <v>300545.2925145097</v>
+      </c>
+      <c r="D4" s="0">
+        <v>4.6298479362876994e-08</v>
+      </c>
+      <c r="E4" s="0">
+        <v>-2.3091404167428722e-08</v>
+      </c>
+      <c r="F4" s="0">
+        <v>1.8337805</v>
+      </c>
       <c r="H4" s="2"/>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="5" x14ac:dyDescent="0.3">
+      <c r="A5" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="0">
+        <v>300108.82556674327</v>
+      </c>
+      <c r="C5" s="0">
+        <v>302277.12039470702</v>
+      </c>
+      <c r="D5" s="0">
+        <v>4.629652211966591e-08</v>
+      </c>
+      <c r="E5" s="0">
+        <v>-2.3089446924217639e-08</v>
+      </c>
+      <c r="F5" s="0">
+        <v>1.7881397999999999</v>
+      </c>
       <c r="H5" s="2"/>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="6" x14ac:dyDescent="0.3">
+      <c r="A6" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" s="0">
+        <v>230222.64989734994</v>
+      </c>
+      <c r="C6" s="0">
+        <v>342164.53360569803</v>
+      </c>
+      <c r="D6" s="0">
+        <v>4.6166105524625759e-08</v>
+      </c>
+      <c r="E6" s="0">
+        <v>-2.2959030329177488e-08</v>
+      </c>
+      <c r="F6" s="0">
+        <v>3.4526469999999998</v>
+      </c>
       <c r="H6" s="2"/>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="7" x14ac:dyDescent="0.3">
+      <c r="A7" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" s="0">
+        <v>8644.6950718619719</v>
+      </c>
+      <c r="C7" s="0">
+        <v>482857.56490056013</v>
+      </c>
+      <c r="D7" s="0">
+        <v>3.4549582402123294e-08</v>
+      </c>
+      <c r="E7" s="0">
+        <v>-1.1342507206675023e-08</v>
+      </c>
+      <c r="F7" s="0">
+        <v>1.6550777999999999</v>
+      </c>
       <c r="H7" s="2"/>
+    </row>
+    <row r="8">
+      <c r="A8" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" s="0">
+        <v>62091.518599336974</v>
+      </c>
+      <c r="C8" s="0">
+        <v>492565.24125124811</v>
+      </c>
+      <c r="D8" s="0">
+        <v>3.4550700664669791e-08</v>
+      </c>
+      <c r="E8" s="0">
+        <v>-1.134362546922152e-08</v>
+      </c>
+      <c r="F8" s="0">
+        <v>1.9217078999999999</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" s="0">
+        <v>7848.6555991413552</v>
+      </c>
+      <c r="C9" s="0">
+        <v>73859.077331380744</v>
+      </c>
+      <c r="D9" s="0">
+        <v>2.3253414031231365e-08</v>
+      </c>
+      <c r="E9" s="0">
+        <v>-4.6338835783093487e-11</v>
+      </c>
+      <c r="F9" s="0">
+        <v>1.85392</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="B10" s="0">
+        <v>39085.92316723289</v>
+      </c>
+      <c r="C10" s="0">
+        <v>62036.821754577162</v>
+      </c>
+      <c r="D10" s="0">
+        <v>2.3420527603849378e-08</v>
+      </c>
+      <c r="E10" s="0">
+        <v>-2.1345240840110631e-10</v>
+      </c>
+      <c r="F10" s="0">
+        <v>2.3279397999999998</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="B11" s="0">
+        <v>8792.6253557805358</v>
+      </c>
+      <c r="C11" s="0">
+        <v>95775.522088274316</v>
+      </c>
+      <c r="D11" s="0">
+        <v>2.3212901518342513e-08</v>
+      </c>
+      <c r="E11" s="0">
+        <v>-5.8263228942411825e-12</v>
+      </c>
+      <c r="F11" s="0">
+        <v>1.9637062000000001</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="B12" s="0">
+        <v>1004.4241951762353</v>
+      </c>
+      <c r="C12" s="0">
+        <v>76519.500492433785</v>
+      </c>
+      <c r="D12" s="0">
+        <v>2.3242297667951682e-08</v>
+      </c>
+      <c r="E12" s="0">
+        <v>-3.5222472503411097e-11</v>
+      </c>
+      <c r="F12" s="0">
+        <v>1.7489576</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="B13" s="0">
+        <v>5960.1409167165757</v>
+      </c>
+      <c r="C13" s="0">
+        <v>96429.893002838668</v>
+      </c>
+      <c r="D13" s="0">
+        <v>2.3208299407071628e-08</v>
+      </c>
+      <c r="E13" s="0">
+        <v>-1.2242116233564897e-12</v>
+      </c>
+      <c r="F13" s="0">
+        <v>1.7988257999999999</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="B14" s="0">
+        <v>29979.321448202711</v>
+      </c>
+      <c r="C14" s="0">
+        <v>497769.78265293763</v>
+      </c>
+      <c r="D14" s="0">
+        <v>3.4545283130336206e-08</v>
+      </c>
+      <c r="E14" s="0">
+        <v>-1.1338207934887934e-08</v>
+      </c>
+      <c r="F14" s="0">
+        <v>2.0394006999999998</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>

--- a/result.xlsx
+++ b/result.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -10,12 +10,12 @@
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{135767D3-7C68-4831-A688-EC6F184DB9B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029" fullCalcOnLoad="true"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="175" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>name</t>
   </si>
@@ -52,19 +52,13 @@
   </si>
   <si>
     <t>tElapsed</t>
-  </si>
-  <si>
-    <t>Simulated Annealing</t>
-  </si>
-  <si>
-    <t>Globalsearch</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
-  <fonts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -94,7 +88,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -109,16 +103,14 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true"/>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -137,7 +129,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -254,7 +246,7 @@
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:gradFill rotWithShape="true">
+        <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
@@ -278,9 +270,9 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="false"/>
+          <a:lin ang="5400000" scaled="0"/>
         </a:gradFill>
-        <a:gradFill rotWithShape="true">
+        <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
@@ -304,7 +296,7 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="false"/>
+          <a:lin ang="5400000" scaled="0"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
@@ -339,7 +331,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="false">
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="63000"/>
               </a:srgbClr>
@@ -357,7 +349,7 @@
             <a:satMod val="170000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:gradFill rotWithShape="true">
+        <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
@@ -382,7 +374,7 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="false"/>
+          <a:lin ang="5400000" scaled="0"/>
         </a:gradFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
@@ -398,34 +390,33 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H14"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:H7"/>
   <sheetViews>
-    <sheetView tabSelected="true" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="17.33203125" customWidth="true"/>
-    <col min="2" max="2" width="13.44140625" customWidth="true"/>
-    <col min="4" max="4" width="15.21875" customWidth="true"/>
-    <col min="5" max="5" width="15.88671875" customWidth="true"/>
-    <col min="6" max="6" width="10.5546875" customWidth="true"/>
-    <col min="3" max="3" width="13.44140625" customWidth="true"/>
+    <col min="1" max="1" width="19.5546875" customWidth="1"/>
+    <col min="2" max="3" width="14.44140625" customWidth="1"/>
+    <col min="4" max="4" width="15.5546875" customWidth="1"/>
+    <col min="5" max="5" width="16.33203125" customWidth="1"/>
+    <col min="6" max="6" width="10.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="0" t="s">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="0" t="s">
+      <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="0" t="s">
+      <c r="D1" t="s">
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
@@ -435,271 +426,23 @@
         <v>5</v>
       </c>
     </row>
-    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="2" x14ac:dyDescent="0.3">
-      <c r="A2" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="B2" s="0">
-        <v>299206.89393604256</v>
-      </c>
-      <c r="C2" s="0">
-        <v>301016.37545857765</v>
-      </c>
-      <c r="D2" s="0">
-        <v>4.6297058258222692e-08</v>
-      </c>
-      <c r="E2" s="0">
-        <v>-2.3089983062774421e-08</v>
-      </c>
-      <c r="F2" s="0">
-        <v>6.4157536999999998</v>
-      </c>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="H2" s="2"/>
     </row>
-    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="3" x14ac:dyDescent="0.3">
-      <c r="A3" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" s="0">
-        <v>294400.90373782179</v>
-      </c>
-      <c r="C3" s="0">
-        <v>306721.38933593151</v>
-      </c>
-      <c r="D3" s="0">
-        <v>4.6283764553415088e-08</v>
-      </c>
-      <c r="E3" s="0">
-        <v>-2.3076689357966816e-08</v>
-      </c>
-      <c r="F3" s="0">
-        <v>12.685788799999999</v>
-      </c>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="H3" s="2"/>
     </row>
-    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="4" x14ac:dyDescent="0.3">
-      <c r="A4" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="0">
-        <v>299858.33245205838</v>
-      </c>
-      <c r="C4" s="0">
-        <v>300545.2925145097</v>
-      </c>
-      <c r="D4" s="0">
-        <v>4.6298479362876994e-08</v>
-      </c>
-      <c r="E4" s="0">
-        <v>-2.3091404167428722e-08</v>
-      </c>
-      <c r="F4" s="0">
-        <v>1.8337805</v>
-      </c>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="H4" s="2"/>
     </row>
-    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="5" x14ac:dyDescent="0.3">
-      <c r="A5" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5" s="0">
-        <v>300108.82556674327</v>
-      </c>
-      <c r="C5" s="0">
-        <v>302277.12039470702</v>
-      </c>
-      <c r="D5" s="0">
-        <v>4.629652211966591e-08</v>
-      </c>
-      <c r="E5" s="0">
-        <v>-2.3089446924217639e-08</v>
-      </c>
-      <c r="F5" s="0">
-        <v>1.7881397999999999</v>
-      </c>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="H5" s="2"/>
     </row>
-    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="6" x14ac:dyDescent="0.3">
-      <c r="A6" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="B6" s="0">
-        <v>230222.64989734994</v>
-      </c>
-      <c r="C6" s="0">
-        <v>342164.53360569803</v>
-      </c>
-      <c r="D6" s="0">
-        <v>4.6166105524625759e-08</v>
-      </c>
-      <c r="E6" s="0">
-        <v>-2.2959030329177488e-08</v>
-      </c>
-      <c r="F6" s="0">
-        <v>3.4526469999999998</v>
-      </c>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="H6" s="2"/>
     </row>
-    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="7" x14ac:dyDescent="0.3">
-      <c r="A7" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="B7" s="0">
-        <v>8644.6950718619719</v>
-      </c>
-      <c r="C7" s="0">
-        <v>482857.56490056013</v>
-      </c>
-      <c r="D7" s="0">
-        <v>3.4549582402123294e-08</v>
-      </c>
-      <c r="E7" s="0">
-        <v>-1.1342507206675023e-08</v>
-      </c>
-      <c r="F7" s="0">
-        <v>1.6550777999999999</v>
-      </c>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="H7" s="2"/>
-    </row>
-    <row r="8">
-      <c r="A8" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="B8" s="0">
-        <v>62091.518599336974</v>
-      </c>
-      <c r="C8" s="0">
-        <v>492565.24125124811</v>
-      </c>
-      <c r="D8" s="0">
-        <v>3.4550700664669791e-08</v>
-      </c>
-      <c r="E8" s="0">
-        <v>-1.134362546922152e-08</v>
-      </c>
-      <c r="F8" s="0">
-        <v>1.9217078999999999</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="B9" s="0">
-        <v>7848.6555991413552</v>
-      </c>
-      <c r="C9" s="0">
-        <v>73859.077331380744</v>
-      </c>
-      <c r="D9" s="0">
-        <v>2.3253414031231365e-08</v>
-      </c>
-      <c r="E9" s="0">
-        <v>-4.6338835783093487e-11</v>
-      </c>
-      <c r="F9" s="0">
-        <v>1.85392</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="B10" s="0">
-        <v>39085.92316723289</v>
-      </c>
-      <c r="C10" s="0">
-        <v>62036.821754577162</v>
-      </c>
-      <c r="D10" s="0">
-        <v>2.3420527603849378e-08</v>
-      </c>
-      <c r="E10" s="0">
-        <v>-2.1345240840110631e-10</v>
-      </c>
-      <c r="F10" s="0">
-        <v>2.3279397999999998</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="B11" s="0">
-        <v>8792.6253557805358</v>
-      </c>
-      <c r="C11" s="0">
-        <v>95775.522088274316</v>
-      </c>
-      <c r="D11" s="0">
-        <v>2.3212901518342513e-08</v>
-      </c>
-      <c r="E11" s="0">
-        <v>-5.8263228942411825e-12</v>
-      </c>
-      <c r="F11" s="0">
-        <v>1.9637062000000001</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="B12" s="0">
-        <v>1004.4241951762353</v>
-      </c>
-      <c r="C12" s="0">
-        <v>76519.500492433785</v>
-      </c>
-      <c r="D12" s="0">
-        <v>2.3242297667951682e-08</v>
-      </c>
-      <c r="E12" s="0">
-        <v>-3.5222472503411097e-11</v>
-      </c>
-      <c r="F12" s="0">
-        <v>1.7489576</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="B13" s="0">
-        <v>5960.1409167165757</v>
-      </c>
-      <c r="C13" s="0">
-        <v>96429.893002838668</v>
-      </c>
-      <c r="D13" s="0">
-        <v>2.3208299407071628e-08</v>
-      </c>
-      <c r="E13" s="0">
-        <v>-1.2242116233564897e-12</v>
-      </c>
-      <c r="F13" s="0">
-        <v>1.7988257999999999</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="B14" s="0">
-        <v>29979.321448202711</v>
-      </c>
-      <c r="C14" s="0">
-        <v>497769.78265293763</v>
-      </c>
-      <c r="D14" s="0">
-        <v>3.4545283130336206e-08</v>
-      </c>
-      <c r="E14" s="0">
-        <v>-1.1338207934887934e-08</v>
-      </c>
-      <c r="F14" s="0">
-        <v>2.0394006999999998</v>
-      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>

--- a/result.xlsx
+++ b/result.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -10,12 +10,12 @@
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{135767D3-7C68-4831-A688-EC6F184DB9B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191029" fullCalcOnLoad="true"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="9438" uniqueCount="12">
   <si>
     <t>name</t>
   </si>
@@ -53,12 +53,30 @@
   <si>
     <t>tElapsed</t>
   </si>
+  <si>
+    <t>Multistart</t>
+  </si>
+  <si>
+    <t>Globalsearch</t>
+  </si>
+  <si>
+    <t>Genetic</t>
+  </si>
+  <si>
+    <t>PatternSearch</t>
+  </si>
+  <si>
+    <t>Simulated Annealing</t>
+  </si>
+  <si>
+    <t>Surrogate</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -88,7 +106,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -103,14 +121,16 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -129,7 +149,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -246,7 +266,7 @@
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:gradFill rotWithShape="1">
+        <a:gradFill rotWithShape="true">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
@@ -270,9 +290,9 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin ang="5400000" scaled="false"/>
         </a:gradFill>
-        <a:gradFill rotWithShape="1">
+        <a:gradFill rotWithShape="true">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
@@ -296,7 +316,7 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin ang="5400000" scaled="false"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
@@ -331,7 +351,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="false">
               <a:srgbClr val="000000">
                 <a:alpha val="63000"/>
               </a:srgbClr>
@@ -349,7 +369,7 @@
             <a:satMod val="170000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:gradFill rotWithShape="1">
+        <a:gradFill rotWithShape="true">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
@@ -374,7 +394,7 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin ang="5400000" scaled="false"/>
         </a:gradFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
@@ -390,33 +410,34 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:H132"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="true" workbookViewId="0">
       <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="19.5546875" customWidth="1"/>
-    <col min="2" max="3" width="14.44140625" customWidth="1"/>
-    <col min="4" max="4" width="15.5546875" customWidth="1"/>
-    <col min="5" max="5" width="16.33203125" customWidth="1"/>
-    <col min="6" max="6" width="10.6640625" customWidth="1"/>
+    <col min="1" max="1" width="19.5703125" customWidth="true"/>
+    <col min="2" max="2" width="14.42578125" customWidth="true"/>
+    <col min="4" max="4" width="15.5703125" customWidth="true"/>
+    <col min="5" max="5" width="16.28515625" customWidth="true"/>
+    <col min="6" max="6" width="9.7109375" customWidth="true"/>
+    <col min="3" max="3" width="14.42578125" customWidth="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="0" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="0" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="0" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="0" t="s">
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
@@ -426,23 +447,2631 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="2" x14ac:dyDescent="0.3">
+      <c r="A2" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="0">
+        <v>11733.403602309842</v>
+      </c>
+      <c r="C2" s="0">
+        <v>35282.605053454325</v>
+      </c>
+      <c r="D2" s="0">
+        <v>2.3458273275362187e-08</v>
+      </c>
+      <c r="E2" s="0">
+        <v>-2.5119807991391598e-10</v>
+      </c>
+      <c r="F2" s="0">
+        <v>3.0495755</v>
+      </c>
       <c r="H2" s="2"/>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="3" x14ac:dyDescent="0.3">
+      <c r="A3" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="0">
+        <v>1000.99</v>
+      </c>
+      <c r="C3" s="0">
+        <v>78018.359092627972</v>
+      </c>
+      <c r="D3" s="0">
+        <v>2.323909835101612e-08</v>
+      </c>
+      <c r="E3" s="0">
+        <v>-3.202315556784848e-11</v>
+      </c>
+      <c r="F3" s="0">
+        <v>2.4651277</v>
+      </c>
       <c r="H3" s="2"/>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="4" x14ac:dyDescent="0.3">
+      <c r="A4" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="0">
+        <v>10253.479596855248</v>
+      </c>
+      <c r="C4" s="0">
+        <v>81940.922060064346</v>
+      </c>
+      <c r="D4" s="0">
+        <v>2.3240525430246561e-08</v>
+      </c>
+      <c r="E4" s="0">
+        <v>-3.3450234798289563e-11</v>
+      </c>
+      <c r="F4" s="0">
+        <v>1.4299029999999999</v>
+      </c>
       <c r="H4" s="2"/>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="5" x14ac:dyDescent="0.3">
+      <c r="A5" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="0">
+        <v>1000.99</v>
+      </c>
+      <c r="C5" s="0">
+        <v>78636.066356478084</v>
+      </c>
+      <c r="D5" s="0">
+        <v>2.3237812951201945e-08</v>
+      </c>
+      <c r="E5" s="0">
+        <v>-3.0737755753673484e-11</v>
+      </c>
+      <c r="F5" s="0">
+        <v>0.88528790000000002</v>
+      </c>
       <c r="H5" s="2"/>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="6" x14ac:dyDescent="0.3">
+      <c r="A6" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" s="0">
+        <v>88810.173392100391</v>
+      </c>
+      <c r="C6" s="0">
+        <v>58078.056759821666</v>
+      </c>
+      <c r="D6" s="0">
+        <v>2.3636501818865027e-08</v>
+      </c>
+      <c r="E6" s="0">
+        <v>-4.2942662341675562e-10</v>
+      </c>
+      <c r="F6" s="0">
+        <v>4.6787118999999997</v>
+      </c>
       <c r="H6" s="2"/>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="7" x14ac:dyDescent="0.3">
+      <c r="A7" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" s="0">
+        <v>31232</v>
+      </c>
+      <c r="C7" s="0">
+        <v>500000</v>
+      </c>
+      <c r="D7" s="0">
+        <v>3.4544904079040666e-08</v>
+      </c>
+      <c r="E7" s="0">
+        <v>-1.1337828883592395e-08</v>
+      </c>
+      <c r="F7" s="0">
+        <v>1.4557070000000001</v>
+      </c>
       <c r="H7" s="2"/>
+    </row>
+    <row r="8">
+      <c r="A8" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8" s="0">
+        <v>28191.899379425096</v>
+      </c>
+      <c r="C8" s="0">
+        <v>492630.51247309137</v>
+      </c>
+      <c r="D8" s="0">
+        <v>3.4546180431090101e-08</v>
+      </c>
+      <c r="E8" s="0">
+        <v>-1.133910523564183e-08</v>
+      </c>
+      <c r="F8" s="0">
+        <v>1.1802520000000001</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="B9" s="0">
+        <v>39938.199015142498</v>
+      </c>
+      <c r="C9" s="0">
+        <v>63024.126551433081</v>
+      </c>
+      <c r="D9" s="0">
+        <v>2.3419393622885668e-08</v>
+      </c>
+      <c r="E9" s="0">
+        <v>-2.1231842743739672e-10</v>
+      </c>
+      <c r="F9" s="0">
+        <v>3.9492386000000002</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="B10" s="0">
+        <v>28336.20458519971</v>
+      </c>
+      <c r="C10" s="0">
+        <v>77982.342133331462</v>
+      </c>
+      <c r="D10" s="0">
+        <v>2.331053129211515e-08</v>
+      </c>
+      <c r="E10" s="0">
+        <v>-1.0345609666687817e-10</v>
+      </c>
+      <c r="F10" s="0">
+        <v>1.6841489000000001</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="B11" s="0">
+        <v>1000.99</v>
+      </c>
+      <c r="C11" s="0">
+        <v>73997.448643474039</v>
+      </c>
+      <c r="D11" s="0">
+        <v>2.3247963068745104e-08</v>
+      </c>
+      <c r="E11" s="0">
+        <v>-4.0887873296832219e-11</v>
+      </c>
+      <c r="F11" s="0">
+        <v>1.2980328000000001</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="B12" s="0">
+        <v>46617.207630705925</v>
+      </c>
+      <c r="C12" s="0">
+        <v>82065.523772732864</v>
+      </c>
+      <c r="D12" s="0">
+        <v>2.3367333683246743e-08</v>
+      </c>
+      <c r="E12" s="0">
+        <v>-1.6025848779847133e-10</v>
+      </c>
+      <c r="F12" s="0">
+        <v>5.0357580000000004</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="B13" s="0">
+        <v>31232</v>
+      </c>
+      <c r="C13" s="0">
+        <v>500000</v>
+      </c>
+      <c r="D13" s="0">
+        <v>3.4544904079040666e-08</v>
+      </c>
+      <c r="E13" s="0">
+        <v>-1.1337828883592395e-08</v>
+      </c>
+      <c r="F13" s="0">
+        <v>1.6075121999999999</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="B14" s="0">
+        <v>23715.707345832612</v>
+      </c>
+      <c r="C14" s="0">
+        <v>99665.748240481509</v>
+      </c>
+      <c r="D14" s="0">
+        <v>2.3242402812334117e-08</v>
+      </c>
+      <c r="E14" s="0">
+        <v>-3.5327616885845182e-11</v>
+      </c>
+      <c r="F14" s="0">
+        <v>1.3303765999999999</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="B15" s="0">
+        <v>21098.495108905048</v>
+      </c>
+      <c r="C15" s="0">
+        <v>81645.755476811566</v>
+      </c>
+      <c r="D15" s="0">
+        <v>2.3273572364581019e-08</v>
+      </c>
+      <c r="E15" s="0">
+        <v>-6.6497169132748003e-11</v>
+      </c>
+      <c r="F15" s="0">
+        <v>4.5473504</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="B16" s="0">
+        <v>20383.577550532402</v>
+      </c>
+      <c r="C16" s="0">
+        <v>88526.489604681512</v>
+      </c>
+      <c r="D16" s="0">
+        <v>2.3254904366666085e-08</v>
+      </c>
+      <c r="E16" s="0">
+        <v>-4.7829171217813817e-11</v>
+      </c>
+      <c r="F16" s="0">
+        <v>1.5872166999999999</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="B17" s="0">
+        <v>3267.3836845036653</v>
+      </c>
+      <c r="C17" s="0">
+        <v>95456.618628558164</v>
+      </c>
+      <c r="D17" s="0">
+        <v>2.32086438988188e-08</v>
+      </c>
+      <c r="E17" s="0">
+        <v>-1.5687033705281706e-12</v>
+      </c>
+      <c r="F17" s="0">
+        <v>1.0077145999999999</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="B18" s="0">
+        <v>9292.6931916365847</v>
+      </c>
+      <c r="C18" s="0">
+        <v>52860.714977721487</v>
+      </c>
+      <c r="D18" s="0">
+        <v>2.3328533554946867e-08</v>
+      </c>
+      <c r="E18" s="0">
+        <v>-1.2145835949859563e-10</v>
+      </c>
+      <c r="F18" s="0">
+        <v>5.0088244</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="B19" s="0">
+        <v>31232</v>
+      </c>
+      <c r="C19" s="0">
+        <v>500000</v>
+      </c>
+      <c r="D19" s="0">
+        <v>3.4544904079040666e-08</v>
+      </c>
+      <c r="E19" s="0">
+        <v>-1.1337828883592395e-08</v>
+      </c>
+      <c r="F19" s="0">
+        <v>1.5528945999999999</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="B20" s="0">
+        <v>77835.439749329918</v>
+      </c>
+      <c r="C20" s="0">
+        <v>72123.630725487252</v>
+      </c>
+      <c r="D20" s="0">
+        <v>2.3522702207324015e-08</v>
+      </c>
+      <c r="E20" s="0">
+        <v>-3.1562701187574391e-10</v>
+      </c>
+      <c r="F20" s="0">
+        <v>1.2433978999999999</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="B21" s="0">
+        <v>4118.75</v>
+      </c>
+      <c r="C21" s="0">
+        <v>45374.960668018161</v>
+      </c>
+      <c r="D21" s="0">
+        <v>2.3352518224301993e-08</v>
+      </c>
+      <c r="E21" s="0">
+        <v>-1.4544302885372198e-10</v>
+      </c>
+      <c r="F21" s="0">
+        <v>4.1853439000000003</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="B22" s="0">
+        <v>93192.240202253728</v>
+      </c>
+      <c r="C22" s="0">
+        <v>38898.658385168455</v>
+      </c>
+      <c r="D22" s="0">
+        <v>2.379156183021229e-08</v>
+      </c>
+      <c r="E22" s="0">
+        <v>-5.8448663476401893e-10</v>
+      </c>
+      <c r="F22" s="0">
+        <v>1.6104552000000001</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="B23" s="0">
+        <v>1000.99</v>
+      </c>
+      <c r="C23" s="0">
+        <v>38622.964726021324</v>
+      </c>
+      <c r="D23" s="0">
+        <v>2.3399650881075544e-08</v>
+      </c>
+      <c r="E23" s="0">
+        <v>-1.9257568562727286e-10</v>
+      </c>
+      <c r="F23" s="0">
+        <v>0.98075520000000005</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="B24" s="0">
+        <v>71423.405710325227</v>
+      </c>
+      <c r="C24" s="0">
+        <v>41022.877202037002</v>
+      </c>
+      <c r="D24" s="0">
+        <v>2.3704580916174484e-08</v>
+      </c>
+      <c r="E24" s="0">
+        <v>-4.9750572072621312e-10</v>
+      </c>
+      <c r="F24" s="0">
+        <v>1.8567115999999999</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="B25" s="0">
+        <v>1000.99</v>
+      </c>
+      <c r="C25" s="0">
+        <v>91004.529470702677</v>
+      </c>
+      <c r="D25" s="0">
+        <v>2.3215581737600942e-08</v>
+      </c>
+      <c r="E25" s="0">
+        <v>-8.5065421526708505e-12</v>
+      </c>
+      <c r="F25" s="0">
+        <v>0.95163330000000002</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="B26" s="0">
+        <v>96640.580861890077</v>
+      </c>
+      <c r="C26" s="0">
+        <v>66922.432289439268</v>
+      </c>
+      <c r="D26" s="0">
+        <v>2.3609408545443664e-08</v>
+      </c>
+      <c r="E26" s="0">
+        <v>-4.0233334999539305e-10</v>
+      </c>
+      <c r="F26" s="0">
+        <v>1.8049887</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="B27" s="0">
+        <v>1000.0000000000146</v>
+      </c>
+      <c r="C27" s="0">
+        <v>85039.486366513214</v>
+      </c>
+      <c r="D27" s="0">
+        <v>2.3225536502901957e-08</v>
+      </c>
+      <c r="E27" s="0">
+        <v>-1.8461307453685164e-11</v>
+      </c>
+      <c r="F27" s="0">
+        <v>0.95192969999999999</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="B28" s="0">
+        <v>76130.400548023696</v>
+      </c>
+      <c r="C28" s="0">
+        <v>254452.93918964398</v>
+      </c>
+      <c r="D28" s="0">
+        <v>3.4653911488058546e-08</v>
+      </c>
+      <c r="E28" s="0">
+        <v>-1.1446836292610275e-08</v>
+      </c>
+      <c r="F28" s="0">
+        <v>4.9678199999999997</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="B29" s="0">
+        <v>14816.635939038122</v>
+      </c>
+      <c r="C29" s="0">
+        <v>299830.3064221149</v>
+      </c>
+      <c r="D29" s="0">
+        <v>3.4599377001555009e-08</v>
+      </c>
+      <c r="E29" s="0">
+        <v>-1.1392301806106738e-08</v>
+      </c>
+      <c r="F29" s="0">
+        <v>1.8145058999999999</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="B30" s="0">
+        <v>1000.99</v>
+      </c>
+      <c r="C30" s="0">
+        <v>57922.679799935635</v>
+      </c>
+      <c r="D30" s="0">
+        <v>2.3294979456667746e-08</v>
+      </c>
+      <c r="E30" s="0">
+        <v>-8.7904261219474771e-11</v>
+      </c>
+      <c r="F30" s="0">
+        <v>0.98641250000000003</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="B31" s="0">
+        <v>80405.622057430373</v>
+      </c>
+      <c r="C31" s="0">
+        <v>85130.52276892183</v>
+      </c>
+      <c r="D31" s="0">
+        <v>2.3474023129466441e-08</v>
+      </c>
+      <c r="E31" s="0">
+        <v>-2.669479340181699e-10</v>
+      </c>
+      <c r="F31" s="0">
+        <v>1.9642885000000001</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="B32" s="0">
+        <v>1000.99</v>
+      </c>
+      <c r="C32" s="0">
+        <v>77893.81075696426</v>
+      </c>
+      <c r="D32" s="0">
+        <v>2.3239359872792204e-08</v>
+      </c>
+      <c r="E32" s="0">
+        <v>-3.2284677343932958e-11</v>
+      </c>
+      <c r="F32" s="0">
+        <v>0.96110910000000005</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="B33" s="0">
+        <v>43783.341460960728</v>
+      </c>
+      <c r="C33" s="0">
+        <v>488469.02908845554</v>
+      </c>
+      <c r="D33" s="0">
+        <v>3.4547712370868804e-08</v>
+      </c>
+      <c r="E33" s="0">
+        <v>-1.1340637175420532e-08</v>
+      </c>
+      <c r="F33" s="0">
+        <v>4.8052389</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="B34" s="0">
+        <v>31232</v>
+      </c>
+      <c r="C34" s="0">
+        <v>500000</v>
+      </c>
+      <c r="D34" s="0">
+        <v>3.4544904079040666e-08</v>
+      </c>
+      <c r="E34" s="0">
+        <v>-1.1337828883592395e-08</v>
+      </c>
+      <c r="F34" s="0">
+        <v>1.51769</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="B35" s="0">
+        <v>36915.655485774478</v>
+      </c>
+      <c r="C35" s="0">
+        <v>497806.83336770575</v>
+      </c>
+      <c r="D35" s="0">
+        <v>3.4545402252587361e-08</v>
+      </c>
+      <c r="E35" s="0">
+        <v>-1.1338327057139089e-08</v>
+      </c>
+      <c r="F35" s="0">
+        <v>1.1915114</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="B36" s="0">
+        <v>49665.048669256583</v>
+      </c>
+      <c r="C36" s="0">
+        <v>11863.1853698586</v>
+      </c>
+      <c r="D36" s="0">
+        <v>2.405772137882056e-08</v>
+      </c>
+      <c r="E36" s="0">
+        <v>-8.5064618337228848e-10</v>
+      </c>
+      <c r="F36" s="0">
+        <v>1.8046439999999999</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="B37" s="0">
+        <v>1000.99</v>
+      </c>
+      <c r="C37" s="0">
+        <v>1000.99</v>
+      </c>
+      <c r="D37" s="0">
+        <v>2.9564750272143067e-08</v>
+      </c>
+      <c r="E37" s="0">
+        <v>-6.3576750766947955e-09</v>
+      </c>
+      <c r="F37" s="0">
+        <v>1.3606039999999999</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="B38" s="0">
+        <v>73976.916184214089</v>
+      </c>
+      <c r="C38" s="0">
+        <v>66592.968605517075</v>
+      </c>
+      <c r="D38" s="0">
+        <v>2.3537478496348695e-08</v>
+      </c>
+      <c r="E38" s="0">
+        <v>-3.3040330090042398e-10</v>
+      </c>
+      <c r="F38" s="0">
+        <v>5.1728113000000002</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="B39" s="0">
+        <v>31232</v>
+      </c>
+      <c r="C39" s="0">
+        <v>500000</v>
+      </c>
+      <c r="D39" s="0">
+        <v>3.4544904079040666e-08</v>
+      </c>
+      <c r="E39" s="0">
+        <v>-1.1337828883592395e-08</v>
+      </c>
+      <c r="F39" s="0">
+        <v>1.6051205</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="B40" s="0">
+        <v>12631.037436017214</v>
+      </c>
+      <c r="C40" s="0">
+        <v>498250.97538846417</v>
+      </c>
+      <c r="D40" s="0">
+        <v>3.4546338110588991e-08</v>
+      </c>
+      <c r="E40" s="0">
+        <v>-1.133926291514072e-08</v>
+      </c>
+      <c r="F40" s="0">
+        <v>1.2186471999999999</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="B41" s="0">
+        <v>4118.75</v>
+      </c>
+      <c r="C41" s="0">
+        <v>58774.794077914237</v>
+      </c>
+      <c r="D41" s="0">
+        <v>2.3291288595734212e-08</v>
+      </c>
+      <c r="E41" s="0">
+        <v>-8.4213400285940942e-11</v>
+      </c>
+      <c r="F41" s="0">
+        <v>4.1423185</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="B42" s="0">
+        <v>34028.890409426182</v>
+      </c>
+      <c r="C42" s="0">
+        <v>26575.577344352529</v>
+      </c>
+      <c r="D42" s="0">
+        <v>2.3704982950328715e-08</v>
+      </c>
+      <c r="E42" s="0">
+        <v>-4.9790775488044347e-10</v>
+      </c>
+      <c r="F42" s="0">
+        <v>1.6126237999999999</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="B43" s="0">
+        <v>1000.99</v>
+      </c>
+      <c r="C43" s="0">
+        <v>90539.105901626026</v>
+      </c>
+      <c r="D43" s="0">
+        <v>2.3216313570916338e-08</v>
+      </c>
+      <c r="E43" s="0">
+        <v>-9.2383754680665191e-12</v>
+      </c>
+      <c r="F43" s="0">
+        <v>1.0128482000000001</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="B44" s="0">
+        <v>57538.706516712547</v>
+      </c>
+      <c r="C44" s="0">
+        <v>475580.23218381032</v>
+      </c>
+      <c r="D44" s="0">
+        <v>3.4553056504600605e-08</v>
+      </c>
+      <c r="E44" s="0">
+        <v>-1.1345981309152333e-08</v>
+      </c>
+      <c r="F44" s="0">
+        <v>4.8214537999999996</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="B45" s="0">
+        <v>31232</v>
+      </c>
+      <c r="C45" s="0">
+        <v>500000</v>
+      </c>
+      <c r="D45" s="0">
+        <v>3.4544904079040666e-08</v>
+      </c>
+      <c r="E45" s="0">
+        <v>-1.1337828883592395e-08</v>
+      </c>
+      <c r="F45" s="0">
+        <v>1.5192055</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="B46" s="0">
+        <v>6664.6431215392895</v>
+      </c>
+      <c r="C46" s="0">
+        <v>45833.544600401197</v>
+      </c>
+      <c r="D46" s="0">
+        <v>2.3356084820028549e-08</v>
+      </c>
+      <c r="E46" s="0">
+        <v>-1.4900962458027736e-10</v>
+      </c>
+      <c r="F46" s="0">
+        <v>1.2057769</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="B47" s="0">
+        <v>1000</v>
+      </c>
+      <c r="C47" s="0">
+        <v>99170.467069996899</v>
+      </c>
+      <c r="D47" s="0">
+        <v>2.3203806384834168e-08</v>
+      </c>
+      <c r="E47" s="0">
+        <v>3.2688106141034396e-12</v>
+      </c>
+      <c r="F47" s="0">
+        <v>3.9925630999999999</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="B48" s="0">
+        <v>41825.736149048549</v>
+      </c>
+      <c r="C48" s="0">
+        <v>48229.150940715255</v>
+      </c>
+      <c r="D48" s="0">
+        <v>2.3518495305359002e-08</v>
+      </c>
+      <c r="E48" s="0">
+        <v>-3.1142010991073069e-10</v>
+      </c>
+      <c r="F48" s="0">
+        <v>1.4565823</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="B49" s="0">
+        <v>1000.99</v>
+      </c>
+      <c r="C49" s="0">
+        <v>60984.81794524844</v>
+      </c>
+      <c r="D49" s="0">
+        <v>2.3284210264426215e-08</v>
+      </c>
+      <c r="E49" s="0">
+        <v>-7.7135068977944077e-11</v>
+      </c>
+      <c r="F49" s="0">
+        <v>0.92233730000000003</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="B50" s="0">
+        <v>9561.5286167356317</v>
+      </c>
+      <c r="C50" s="0">
+        <v>205854.41049039035</v>
+      </c>
+      <c r="D50" s="0">
+        <v>3.4658672554102869e-08</v>
+      </c>
+      <c r="E50" s="0">
+        <v>-1.1451597358654598e-08</v>
+      </c>
+      <c r="F50" s="0">
+        <v>4.7183260000000002</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="B51" s="0">
+        <v>76200.641408799362</v>
+      </c>
+      <c r="C51" s="0">
+        <v>45793.998940730678</v>
+      </c>
+      <c r="D51" s="0">
+        <v>2.3681162666768101e-08</v>
+      </c>
+      <c r="E51" s="0">
+        <v>-4.740874713198296e-10</v>
+      </c>
+      <c r="F51" s="0">
+        <v>1.655956</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="B52" s="0">
+        <v>1000.99</v>
+      </c>
+      <c r="C52" s="0">
+        <v>74856.958861582796</v>
+      </c>
+      <c r="D52" s="0">
+        <v>2.3245992124762797e-08</v>
+      </c>
+      <c r="E52" s="0">
+        <v>-3.8916929314526055e-11</v>
+      </c>
+      <c r="F52" s="0">
+        <v>0.91184949999999998</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="B53" s="0">
+        <v>21903.314396576276</v>
+      </c>
+      <c r="C53" s="0">
+        <v>63704.570728206847</v>
+      </c>
+      <c r="D53" s="0">
+        <v>2.3334698023375528e-08</v>
+      </c>
+      <c r="E53" s="0">
+        <v>-1.2762282792725704e-10</v>
+      </c>
+      <c r="F53" s="0">
+        <v>4.8802158000000002</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="B54" s="0">
+        <v>7128.6024882761894</v>
+      </c>
+      <c r="C54" s="0">
+        <v>33859.965379136556</v>
+      </c>
+      <c r="D54" s="0">
+        <v>2.3449431140386945e-08</v>
+      </c>
+      <c r="E54" s="0">
+        <v>-2.4235594493867367e-10</v>
+      </c>
+      <c r="F54" s="0">
+        <v>1.7998928999999999</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="B55" s="0">
+        <v>1000.99</v>
+      </c>
+      <c r="C55" s="0">
+        <v>63215.492079621588</v>
+      </c>
+      <c r="D55" s="0">
+        <v>2.3276991046763873e-08</v>
+      </c>
+      <c r="E55" s="0">
+        <v>-6.9915851315601423e-11</v>
+      </c>
+      <c r="F55" s="0">
+        <v>0.87744540000000004</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="B56" s="0">
+        <v>53602.712718096634</v>
+      </c>
+      <c r="C56" s="0">
+        <v>79517.657726006248</v>
+      </c>
+      <c r="D56" s="0">
+        <v>2.3403026962886944e-08</v>
+      </c>
+      <c r="E56" s="0">
+        <v>-1.959517674386722e-10</v>
+      </c>
+      <c r="F56" s="0">
+        <v>4.6548932000000001</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="B57" s="0">
+        <v>31232</v>
+      </c>
+      <c r="C57" s="0">
+        <v>500000</v>
+      </c>
+      <c r="D57" s="0">
+        <v>3.4544904079040666e-08</v>
+      </c>
+      <c r="E57" s="0">
+        <v>-1.1337828883592395e-08</v>
+      </c>
+      <c r="F57" s="0">
+        <v>1.4489194999999999</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="B58" s="0">
+        <v>7854.8942423787812</v>
+      </c>
+      <c r="C58" s="0">
+        <v>84717.407631732669</v>
+      </c>
+      <c r="D58" s="0">
+        <v>2.3230051011291859e-08</v>
+      </c>
+      <c r="E58" s="0">
+        <v>-2.2975815843587665e-11</v>
+      </c>
+      <c r="F58" s="0">
+        <v>1.1910023999999999</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="B59" s="0">
+        <v>4118.75</v>
+      </c>
+      <c r="C59" s="0">
+        <v>95553.045620831472</v>
+      </c>
+      <c r="D59" s="0">
+        <v>2.3208642631869348e-08</v>
+      </c>
+      <c r="E59" s="0">
+        <v>-1.5674364210767243e-12</v>
+      </c>
+      <c r="F59" s="0">
+        <v>3.8834221000000002</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="B60" s="0">
+        <v>23159.526803382287</v>
+      </c>
+      <c r="C60" s="0">
+        <v>455723.79154023959</v>
+      </c>
+      <c r="D60" s="0">
+        <v>3.4553146311105122e-08</v>
+      </c>
+      <c r="E60" s="0">
+        <v>-1.134607111565685e-08</v>
+      </c>
+      <c r="F60" s="0">
+        <v>1.4968602</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="B61" s="0">
+        <v>1000.99</v>
+      </c>
+      <c r="C61" s="0">
+        <v>94158.981335992037</v>
+      </c>
+      <c r="D61" s="0">
+        <v>2.3210803018406398e-08</v>
+      </c>
+      <c r="E61" s="0">
+        <v>-3.7278229581270704e-12</v>
+      </c>
+      <c r="F61" s="0">
+        <v>0.99794349999999998</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="B62" s="0">
+        <v>20529.663715341354</v>
+      </c>
+      <c r="C62" s="0">
+        <v>29016.910875508071</v>
+      </c>
+      <c r="D62" s="0">
+        <v>2.3586518858903154e-08</v>
+      </c>
+      <c r="E62" s="0">
+        <v>-3.7944366345488304e-10</v>
+      </c>
+      <c r="F62" s="0">
+        <v>4.6585517999999997</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="B63" s="0">
+        <v>31232</v>
+      </c>
+      <c r="C63" s="0">
+        <v>500000</v>
+      </c>
+      <c r="D63" s="0">
+        <v>3.4544904079040666e-08</v>
+      </c>
+      <c r="E63" s="0">
+        <v>-1.1337828883592395e-08</v>
+      </c>
+      <c r="F63" s="0">
+        <v>1.4690996000000001</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="B64" s="0">
+        <v>9580.2981780622558</v>
+      </c>
+      <c r="C64" s="0">
+        <v>496714.76861575508</v>
+      </c>
+      <c r="D64" s="0">
+        <v>3.4546989250855224e-08</v>
+      </c>
+      <c r="E64" s="0">
+        <v>-1.1339914055406953e-08</v>
+      </c>
+      <c r="F64" s="0">
+        <v>1.1553675999999999</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="B65" s="0">
+        <v>1000</v>
+      </c>
+      <c r="C65" s="0">
+        <v>60613.782940747973</v>
+      </c>
+      <c r="D65" s="0">
+        <v>2.3285460898299501e-08</v>
+      </c>
+      <c r="E65" s="0">
+        <v>-7.8385702851229998e-11</v>
+      </c>
+      <c r="F65" s="0">
+        <v>3.8760618</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="B66" s="0">
+        <v>55703.136412081563</v>
+      </c>
+      <c r="C66" s="0">
+        <v>88675.515887725007</v>
+      </c>
+      <c r="D66" s="0">
+        <v>2.3377758809656717e-08</v>
+      </c>
+      <c r="E66" s="0">
+        <v>-1.7068361420844538e-10</v>
+      </c>
+      <c r="F66" s="0">
+        <v>1.7849488</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="B67" s="0">
+        <v>1000.99</v>
+      </c>
+      <c r="C67" s="0">
+        <v>1000.99</v>
+      </c>
+      <c r="D67" s="0">
+        <v>2.9564750272143067e-08</v>
+      </c>
+      <c r="E67" s="0">
+        <v>-6.3576750766947955e-09</v>
+      </c>
+      <c r="F67" s="0">
+        <v>1.2258692</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="B68" s="0">
+        <v>39225.130027253668</v>
+      </c>
+      <c r="C68" s="0">
+        <v>263915.47922788543</v>
+      </c>
+      <c r="D68" s="0">
+        <v>3.4620595474681793e-08</v>
+      </c>
+      <c r="E68" s="0">
+        <v>-1.1413520279233521e-08</v>
+      </c>
+      <c r="F68" s="0">
+        <v>4.6659895999999996</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="B69" s="0">
+        <v>31232</v>
+      </c>
+      <c r="C69" s="0">
+        <v>500000</v>
+      </c>
+      <c r="D69" s="0">
+        <v>3.4544904079040666e-08</v>
+      </c>
+      <c r="E69" s="0">
+        <v>-1.1337828883592395e-08</v>
+      </c>
+      <c r="F69" s="0">
+        <v>1.4366345</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="B70" s="0">
+        <v>48146.699109726585</v>
+      </c>
+      <c r="C70" s="0">
+        <v>89821.499858978626</v>
+      </c>
+      <c r="D70" s="0">
+        <v>2.3347464255401285e-08</v>
+      </c>
+      <c r="E70" s="0">
+        <v>-1.4038905995301337e-10</v>
+      </c>
+      <c r="F70" s="0">
+        <v>1.198536</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="B71" s="0">
+        <v>36077.834850988649</v>
+      </c>
+      <c r="C71" s="0">
+        <v>56965.092023505698</v>
+      </c>
+      <c r="D71" s="0">
+        <v>2.3433685296852929e-08</v>
+      </c>
+      <c r="E71" s="0">
+        <v>-2.2661010140465767e-10</v>
+      </c>
+      <c r="F71" s="0">
+        <v>3.9915118000000001</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="B72" s="0">
+        <v>82304.690492506255</v>
+      </c>
+      <c r="C72" s="0">
+        <v>89892.648500338677</v>
+      </c>
+      <c r="D72" s="0">
+        <v>2.3461725393500584e-08</v>
+      </c>
+      <c r="E72" s="0">
+        <v>-2.5465019805231288e-10</v>
+      </c>
+      <c r="F72" s="0">
+        <v>1.6157813000000001</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="B73" s="0">
+        <v>1000.99</v>
+      </c>
+      <c r="C73" s="0">
+        <v>95108.223017282755</v>
+      </c>
+      <c r="D73" s="0">
+        <v>2.3209423987871973e-08</v>
+      </c>
+      <c r="E73" s="0">
+        <v>-2.3487924237015271e-12</v>
+      </c>
+      <c r="F73" s="0">
+        <v>0.88068380000000002</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="B74" s="0">
+        <v>55212.488486646682</v>
+      </c>
+      <c r="C74" s="0">
+        <v>436739.32163488673</v>
+      </c>
+      <c r="D74" s="0">
+        <v>3.4561335033233349e-08</v>
+      </c>
+      <c r="E74" s="0">
+        <v>-1.1354259837785078e-08</v>
+      </c>
+      <c r="F74" s="0">
+        <v>4.7101217999999996</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="B75" s="0">
+        <v>31232</v>
+      </c>
+      <c r="C75" s="0">
+        <v>500000</v>
+      </c>
+      <c r="D75" s="0">
+        <v>3.4544904079040666e-08</v>
+      </c>
+      <c r="E75" s="0">
+        <v>-1.1337828883592395e-08</v>
+      </c>
+      <c r="F75" s="0">
+        <v>1.4704246000000001</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="B76" s="0">
+        <v>75854.186331989738</v>
+      </c>
+      <c r="C76" s="0">
+        <v>93663.314037069562</v>
+      </c>
+      <c r="D76" s="0">
+        <v>2.3427992699847814e-08</v>
+      </c>
+      <c r="E76" s="0">
+        <v>-2.2091750439954303e-10</v>
+      </c>
+      <c r="F76" s="0">
+        <v>1.2035195999999999</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="B77" s="0">
+        <v>1000</v>
+      </c>
+      <c r="C77" s="0">
+        <v>54789.354073721857</v>
+      </c>
+      <c r="D77" s="0">
+        <v>2.3307181867152583e-08</v>
+      </c>
+      <c r="E77" s="0">
+        <v>-1.0010667170431201e-10</v>
+      </c>
+      <c r="F77" s="0">
+        <v>3.9536083</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="B78" s="0">
+        <v>12618.245756324346</v>
+      </c>
+      <c r="C78" s="0">
+        <v>49044.869995250796</v>
+      </c>
+      <c r="D78" s="0">
+        <v>2.3361680794594893e-08</v>
+      </c>
+      <c r="E78" s="0">
+        <v>-1.5460559914662133e-10</v>
+      </c>
+      <c r="F78" s="0">
+        <v>1.5864594000000001</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="B79" s="0">
+        <v>1000.99</v>
+      </c>
+      <c r="C79" s="0">
+        <v>56673.191917644217</v>
+      </c>
+      <c r="D79" s="0">
+        <v>2.3299691171228476e-08</v>
+      </c>
+      <c r="E79" s="0">
+        <v>-9.2615975780204194e-11</v>
+      </c>
+      <c r="F79" s="0">
+        <v>1.0291536999999999</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="B80" s="0">
+        <v>73723.737812204999</v>
+      </c>
+      <c r="C80" s="0">
+        <v>386261.00162973901</v>
+      </c>
+      <c r="D80" s="0">
+        <v>3.4583646479332583e-08</v>
+      </c>
+      <c r="E80" s="0">
+        <v>-1.1376571283884312e-08</v>
+      </c>
+      <c r="F80" s="0">
+        <v>4.6972946000000002</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="B81" s="0">
+        <v>31232</v>
+      </c>
+      <c r="C81" s="0">
+        <v>500000</v>
+      </c>
+      <c r="D81" s="0">
+        <v>3.4544904079040666e-08</v>
+      </c>
+      <c r="E81" s="0">
+        <v>-1.1337828883592395e-08</v>
+      </c>
+      <c r="F81" s="0">
+        <v>1.5436349</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="B82" s="0">
+        <v>29384.679069056783</v>
+      </c>
+      <c r="C82" s="0">
+        <v>499938.90678704617</v>
+      </c>
+      <c r="D82" s="0">
+        <v>3.4544926440435062e-08</v>
+      </c>
+      <c r="E82" s="0">
+        <v>-1.1337851244986791e-08</v>
+      </c>
+      <c r="F82" s="0">
+        <v>1.2046744</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="B83" s="0">
+        <v>30521.577528019196</v>
+      </c>
+      <c r="C83" s="0">
+        <v>84115.54933942217</v>
+      </c>
+      <c r="D83" s="0">
+        <v>2.3300540743899397e-08</v>
+      </c>
+      <c r="E83" s="0">
+        <v>-9.3465548451125724e-11</v>
+      </c>
+      <c r="F83" s="0">
+        <v>4.0536731000000001</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="B84" s="0">
+        <v>46469.813112706601</v>
+      </c>
+      <c r="C84" s="0">
+        <v>308331.34738176654</v>
+      </c>
+      <c r="D84" s="0">
+        <v>3.4601147326707844e-08</v>
+      </c>
+      <c r="E84" s="0">
+        <v>-1.1394072131259573e-08</v>
+      </c>
+      <c r="F84" s="0">
+        <v>1.5228617</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="B85" s="0">
+        <v>1000.99</v>
+      </c>
+      <c r="C85" s="0">
+        <v>78068.619288310321</v>
+      </c>
+      <c r="D85" s="0">
+        <v>2.3238993041182949e-08</v>
+      </c>
+      <c r="E85" s="0">
+        <v>-3.1917845734677258e-11</v>
+      </c>
+      <c r="F85" s="0">
+        <v>0.93887100000000001</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="B86" s="0">
+        <v>7896.6946960903279</v>
+      </c>
+      <c r="C86" s="0">
+        <v>86970.494999830626</v>
+      </c>
+      <c r="D86" s="0">
+        <v>2.3225967174897224e-08</v>
+      </c>
+      <c r="E86" s="0">
+        <v>-1.8891979448952805e-11</v>
+      </c>
+      <c r="F86" s="0">
+        <v>1.5200267999999999</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="B87" s="0">
+        <v>1000.99</v>
+      </c>
+      <c r="C87" s="0">
+        <v>76027.3550369976</v>
+      </c>
+      <c r="D87" s="0">
+        <v>2.3243376440563163e-08</v>
+      </c>
+      <c r="E87" s="0">
+        <v>-3.6301245114891698e-11</v>
+      </c>
+      <c r="F87" s="0">
+        <v>0.93292079999999999</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="B88" s="0">
+        <v>45364.594495677855</v>
+      </c>
+      <c r="C88" s="0">
+        <v>449044.45968899014</v>
+      </c>
+      <c r="D88" s="0">
+        <v>3.4556010883401874e-08</v>
+      </c>
+      <c r="E88" s="0">
+        <v>-1.1348935687953602e-08</v>
+      </c>
+      <c r="F88" s="0">
+        <v>4.6434015000000004</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="B89" s="0">
+        <v>31232</v>
+      </c>
+      <c r="C89" s="0">
+        <v>500000</v>
+      </c>
+      <c r="D89" s="0">
+        <v>3.4544904079040666e-08</v>
+      </c>
+      <c r="E89" s="0">
+        <v>-1.1337828883592395e-08</v>
+      </c>
+      <c r="F89" s="0">
+        <v>1.4888082</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="B90" s="0">
+        <v>49148.903650355736</v>
+      </c>
+      <c r="C90" s="0">
+        <v>9143.9525364994188</v>
+      </c>
+      <c r="D90" s="0">
+        <v>2.4128493799162117e-08</v>
+      </c>
+      <c r="E90" s="0">
+        <v>-9.2141860371384561e-10</v>
+      </c>
+      <c r="F90" s="0">
+        <v>1.4044938</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="B91" s="0">
+        <v>2650.4877818036766</v>
+      </c>
+      <c r="C91" s="0">
+        <v>65111.16066139919</v>
+      </c>
+      <c r="D91" s="0">
+        <v>2.3270388378777739e-08</v>
+      </c>
+      <c r="E91" s="0">
+        <v>-6.3313183329467687e-11</v>
+      </c>
+      <c r="F91" s="0">
+        <v>4.3377521000000003</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="B92" s="0">
+        <v>79057.591172524946</v>
+      </c>
+      <c r="C92" s="0">
+        <v>56271.622676785119</v>
+      </c>
+      <c r="D92" s="0">
+        <v>2.3615866932328237e-08</v>
+      </c>
+      <c r="E92" s="0">
+        <v>-4.087917368799654e-10</v>
+      </c>
+      <c r="F92" s="0">
+        <v>1.5056967000000001</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="B93" s="0">
+        <v>1000.99</v>
+      </c>
+      <c r="C93" s="0">
+        <v>42879.146776850699</v>
+      </c>
+      <c r="D93" s="0">
+        <v>2.3368888147938863e-08</v>
+      </c>
+      <c r="E93" s="0">
+        <v>-1.6181295249059201e-10</v>
+      </c>
+      <c r="F93" s="0">
+        <v>1.0858331999999999</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="B94" s="0">
+        <v>53200.729606940848</v>
+      </c>
+      <c r="C94" s="0">
+        <v>81934.057236455425</v>
+      </c>
+      <c r="D94" s="0">
+        <v>2.3392388629511038e-08</v>
+      </c>
+      <c r="E94" s="0">
+        <v>-1.8531343406276689e-10</v>
+      </c>
+      <c r="F94" s="0">
+        <v>1.6744250000000001</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="B95" s="0">
+        <v>1000.0000000000146</v>
+      </c>
+      <c r="C95" s="0">
+        <v>42223.978628610159</v>
+      </c>
+      <c r="D95" s="0">
+        <v>2.3373241206865193e-08</v>
+      </c>
+      <c r="E95" s="0">
+        <v>-1.6616601141692179e-10</v>
+      </c>
+      <c r="F95" s="0">
+        <v>0.96410960000000001</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="B96" s="0">
+        <v>39373.919583847193</v>
+      </c>
+      <c r="C96" s="0">
+        <v>410647.11771792045</v>
+      </c>
+      <c r="D96" s="0">
+        <v>3.4563988349545074e-08</v>
+      </c>
+      <c r="E96" s="0">
+        <v>-1.1356913154096802e-08</v>
+      </c>
+      <c r="F96" s="0">
+        <v>4.7116220999999996</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="B97" s="0">
+        <v>31232</v>
+      </c>
+      <c r="C97" s="0">
+        <v>500000</v>
+      </c>
+      <c r="D97" s="0">
+        <v>3.4544904079040666e-08</v>
+      </c>
+      <c r="E97" s="0">
+        <v>-1.1337828883592395e-08</v>
+      </c>
+      <c r="F97" s="0">
+        <v>1.5082108000000001</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="B98" s="0">
+        <v>39445.750079422505</v>
+      </c>
+      <c r="C98" s="0">
+        <v>91207.268800423044</v>
+      </c>
+      <c r="D98" s="0">
+        <v>2.3312763881414933e-08</v>
+      </c>
+      <c r="E98" s="0">
+        <v>-1.0568868596666199e-10</v>
+      </c>
+      <c r="F98" s="0">
+        <v>1.1667566</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="B99" s="0">
+        <v>6018.1081034182353</v>
+      </c>
+      <c r="C99" s="0">
+        <v>58871.822630938579</v>
+      </c>
+      <c r="D99" s="0">
+        <v>2.3294180800071423e-08</v>
+      </c>
+      <c r="E99" s="0">
+        <v>-8.7105604623152113e-11</v>
+      </c>
+      <c r="F99" s="0">
+        <v>3.904801</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="B100" s="0">
+        <v>47352.284632638599</v>
+      </c>
+      <c r="C100" s="0">
+        <v>94821.833037584918</v>
+      </c>
+      <c r="D100" s="0">
+        <v>2.333005851207525e-08</v>
+      </c>
+      <c r="E100" s="0">
+        <v>-1.2298331662697897e-10</v>
+      </c>
+      <c r="F100" s="0">
+        <v>1.4361519</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="B101" s="0">
+        <v>1000.99</v>
+      </c>
+      <c r="C101" s="0">
+        <v>97361.279122516004</v>
+      </c>
+      <c r="D101" s="0">
+        <v>2.3206253160830709e-08</v>
+      </c>
+      <c r="E101" s="0">
+        <v>8.2203461756221582e-13</v>
+      </c>
+      <c r="F101" s="0">
+        <v>0.98439540000000003</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="B102" s="0">
+        <v>59970.713680453999</v>
+      </c>
+      <c r="C102" s="0">
+        <v>8769.2335287600836</v>
+      </c>
+      <c r="D102" s="0">
+        <v>2.4145672138128146e-08</v>
+      </c>
+      <c r="E102" s="0">
+        <v>-9.3859694267987417e-10</v>
+      </c>
+      <c r="F102" s="0">
+        <v>4.6924619999999999</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="B103" s="0">
+        <v>31232</v>
+      </c>
+      <c r="C103" s="0">
+        <v>500000</v>
+      </c>
+      <c r="D103" s="0">
+        <v>3.4544904079040666e-08</v>
+      </c>
+      <c r="E103" s="0">
+        <v>-1.1337828883592395e-08</v>
+      </c>
+      <c r="F103" s="0">
+        <v>1.463554</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="B104" s="0">
+        <v>94849.525543245414</v>
+      </c>
+      <c r="C104" s="0">
+        <v>453272.3526384196</v>
+      </c>
+      <c r="D104" s="0">
+        <v>3.4572625564670052e-08</v>
+      </c>
+      <c r="E104" s="0">
+        <v>-1.136555036922178e-08</v>
+      </c>
+      <c r="F104" s="0">
+        <v>1.2328907</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="B105" s="0">
+        <v>1000</v>
+      </c>
+      <c r="C105" s="0">
+        <v>83602.885247754908</v>
+      </c>
+      <c r="D105" s="0">
+        <v>2.3228135212126985e-08</v>
+      </c>
+      <c r="E105" s="0">
+        <v>-2.1060016678713931e-11</v>
+      </c>
+      <c r="F105" s="0">
+        <v>3.9177114</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="B106" s="0">
+        <v>4524.7375438115341</v>
+      </c>
+      <c r="C106" s="0">
+        <v>99948.01870286878</v>
+      </c>
+      <c r="D106" s="0">
+        <v>2.3202775045640041e-08</v>
+      </c>
+      <c r="E106" s="0">
+        <v>4.3001498082298815e-12</v>
+      </c>
+      <c r="F106" s="0">
+        <v>1.6342956</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="B107" s="0">
+        <v>1000.99</v>
+      </c>
+      <c r="C107" s="0">
+        <v>26126.079954398825</v>
+      </c>
+      <c r="D107" s="0">
+        <v>2.3544152251025484e-08</v>
+      </c>
+      <c r="E107" s="0">
+        <v>-3.3707705557721289e-10</v>
+      </c>
+      <c r="F107" s="0">
+        <v>0.92010780000000003</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="B108" s="0">
+        <v>210167.91478755977</v>
+      </c>
+      <c r="C108" s="0">
+        <v>83875.548504071776</v>
+      </c>
+      <c r="D108" s="0">
+        <v>3.5248717616767887e-08</v>
+      </c>
+      <c r="E108" s="0">
+        <v>-1.2041642421319616e-08</v>
+      </c>
+      <c r="F108" s="0">
+        <v>4.7178323999999998</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="B109" s="0">
+        <v>31232</v>
+      </c>
+      <c r="C109" s="0">
+        <v>500000</v>
+      </c>
+      <c r="D109" s="0">
+        <v>3.4544904079040666e-08</v>
+      </c>
+      <c r="E109" s="0">
+        <v>-1.1337828883592395e-08</v>
+      </c>
+      <c r="F109" s="0">
+        <v>1.4689667</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="B110" s="0">
+        <v>68846.993540342461</v>
+      </c>
+      <c r="C110" s="0">
+        <v>428803.03033068526</v>
+      </c>
+      <c r="D110" s="0">
+        <v>3.4568126632172104e-08</v>
+      </c>
+      <c r="E110" s="0">
+        <v>-1.1361051436723833e-08</v>
+      </c>
+      <c r="F110" s="0">
+        <v>1.1692174</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="B111" s="0">
+        <v>1000</v>
+      </c>
+      <c r="C111" s="0">
+        <v>99764.381200689983</v>
+      </c>
+      <c r="D111" s="0">
+        <v>2.3203021473300467e-08</v>
+      </c>
+      <c r="E111" s="0">
+        <v>4.0537221478040615e-12</v>
+      </c>
+      <c r="F111" s="0">
+        <v>3.8590276999999999</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="B112" s="0">
+        <v>15476.117452940609</v>
+      </c>
+      <c r="C112" s="0">
+        <v>33301.080239530755</v>
+      </c>
+      <c r="D112" s="0">
+        <v>2.3501016422040368e-08</v>
+      </c>
+      <c r="E112" s="0">
+        <v>-2.9394122659209675e-10</v>
+      </c>
+      <c r="F112" s="0">
+        <v>1.5121024000000001</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="B113" s="0">
+        <v>1000.99</v>
+      </c>
+      <c r="C113" s="0">
+        <v>81110.975323519233</v>
+      </c>
+      <c r="D113" s="0">
+        <v>2.3232849677636924e-08</v>
+      </c>
+      <c r="E113" s="0">
+        <v>-2.5774482188653009e-11</v>
+      </c>
+      <c r="F113" s="0">
+        <v>1.2190240000000001</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="B114" s="0">
+        <v>45497.249788016634</v>
+      </c>
+      <c r="C114" s="0">
+        <v>16250.631926768696</v>
+      </c>
+      <c r="D114" s="0">
+        <v>2.3945750789292231e-08</v>
+      </c>
+      <c r="E114" s="0">
+        <v>-7.3867559384395978e-10</v>
+      </c>
+      <c r="F114" s="0">
+        <v>4.7055511000000001</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="B115" s="0">
+        <v>31232</v>
+      </c>
+      <c r="C115" s="0">
+        <v>500000</v>
+      </c>
+      <c r="D115" s="0">
+        <v>3.4544904079040666e-08</v>
+      </c>
+      <c r="E115" s="0">
+        <v>-1.1337828883592395e-08</v>
+      </c>
+      <c r="F115" s="0">
+        <v>1.5482754999999999</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="B116" s="0">
+        <v>53731.494540513355</v>
+      </c>
+      <c r="C116" s="0">
+        <v>95957.283387888951</v>
+      </c>
+      <c r="D116" s="0">
+        <v>2.3348369732778956e-08</v>
+      </c>
+      <c r="E116" s="0">
+        <v>-1.4129453733068485e-10</v>
+      </c>
+      <c r="F116" s="0">
+        <v>1.6262732</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="B117" s="0">
+        <v>1000.99</v>
+      </c>
+      <c r="C117" s="0">
+        <v>91858.275629968819</v>
+      </c>
+      <c r="D117" s="0">
+        <v>2.3214257624869987e-08</v>
+      </c>
+      <c r="E117" s="0">
+        <v>-7.1824294217157995e-12</v>
+      </c>
+      <c r="F117" s="0">
+        <v>0.9022966</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="B118" s="0">
+        <v>9567.5257551637842</v>
+      </c>
+      <c r="C118" s="0">
+        <v>98060.612286455435</v>
+      </c>
+      <c r="D118" s="0">
+        <v>2.3210777845095022e-08</v>
+      </c>
+      <c r="E118" s="0">
+        <v>-3.7026496467507768e-12</v>
+      </c>
+      <c r="F118" s="0">
+        <v>4.6253228999999996</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="B119" s="0">
+        <v>31232</v>
+      </c>
+      <c r="C119" s="0">
+        <v>500000</v>
+      </c>
+      <c r="D119" s="0">
+        <v>3.4544904079040666e-08</v>
+      </c>
+      <c r="E119" s="0">
+        <v>-1.1337828883592395e-08</v>
+      </c>
+      <c r="F119" s="0">
+        <v>1.4635590999999999</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="B120" s="0">
+        <v>35297.630927989856</v>
+      </c>
+      <c r="C120" s="0">
+        <v>491548.51110782096</v>
+      </c>
+      <c r="D120" s="0">
+        <v>3.4546416074714332e-08</v>
+      </c>
+      <c r="E120" s="0">
+        <v>-1.133934087926606e-08</v>
+      </c>
+      <c r="F120" s="0">
+        <v>1.2057633000000001</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="B121" s="0">
+        <v>1000</v>
+      </c>
+      <c r="C121" s="0">
+        <v>78643.334024893324</v>
+      </c>
+      <c r="D121" s="0">
+        <v>2.3237798373442792e-08</v>
+      </c>
+      <c r="E121" s="0">
+        <v>-3.0723177994520637e-11</v>
+      </c>
+      <c r="F121" s="0">
+        <v>3.8872966</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="B122" s="0">
+        <v>74</v>
+      </c>
+      <c r="C122" s="0">
+        <v>8</v>
+      </c>
+      <c r="D122" s="0">
+        <v>3.3273327237033853e-09</v>
+      </c>
+      <c r="E122" s="0">
+        <v>-3.6499006855331746e-10</v>
+      </c>
+      <c r="F122" s="0">
+        <v>2.8141576000000001</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="B123" s="0">
+        <v>72</v>
+      </c>
+      <c r="C123" s="0">
+        <v>194</v>
+      </c>
+      <c r="D123" s="0">
+        <v>4.22109022734304e-09</v>
+      </c>
+      <c r="E123" s="0">
+        <v>-1.2587475721929722e-09</v>
+      </c>
+      <c r="F123" s="0">
+        <v>2.2895465000000002</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="B124" s="0">
+        <v>74</v>
+      </c>
+      <c r="C124" s="0">
+        <v>8</v>
+      </c>
+      <c r="D124" s="0">
+        <v>3.3273327237033853e-09</v>
+      </c>
+      <c r="E124" s="0">
+        <v>-3.6499006855331746e-10</v>
+      </c>
+      <c r="F124" s="0">
+        <v>3.2191426999999999</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="B125" s="0">
+        <v>73</v>
+      </c>
+      <c r="C125" s="0">
+        <v>80</v>
+      </c>
+      <c r="D125" s="0">
+        <v>5.2443534866604089e-09</v>
+      </c>
+      <c r="E125" s="0">
+        <v>-2.2820108315103411e-09</v>
+      </c>
+      <c r="F125" s="0">
+        <v>2.2571249999999998</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="B126" s="0">
+        <v>73</v>
+      </c>
+      <c r="C126" s="0">
+        <v>8</v>
+      </c>
+      <c r="D126" s="0">
+        <v>3.330183974290814e-09</v>
+      </c>
+      <c r="E126" s="0">
+        <v>-3.6784131914074621e-10</v>
+      </c>
+      <c r="F126" s="0">
+        <v>3.0554773000000002</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="B127" s="0">
+        <v>74</v>
+      </c>
+      <c r="C127" s="0">
+        <v>92</v>
+      </c>
+      <c r="D127" s="0">
+        <v>4.2061605667783277e-09</v>
+      </c>
+      <c r="E127" s="0">
+        <v>-1.2438179116282599e-09</v>
+      </c>
+      <c r="F127" s="0">
+        <v>2.2849541000000002</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="B128" s="0">
+        <v>57</v>
+      </c>
+      <c r="C128" s="0">
+        <v>8</v>
+      </c>
+      <c r="D128" s="0">
+        <v>2.9618220449631933e-09</v>
+      </c>
+      <c r="E128" s="0">
+        <v>5.206101868745164e-13</v>
+      </c>
+      <c r="F128" s="0">
+        <v>2.8652055999999999</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="B129" s="0">
+        <v>74</v>
+      </c>
+      <c r="C129" s="0">
+        <v>8</v>
+      </c>
+      <c r="D129" s="0">
+        <v>3.3273327237033853e-09</v>
+      </c>
+      <c r="E129" s="0">
+        <v>-3.6499006855331746e-10</v>
+      </c>
+      <c r="F129" s="0">
+        <v>3.5444988999999998</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="B130" s="0">
+        <v>72</v>
+      </c>
+      <c r="C130" s="0">
+        <v>62</v>
+      </c>
+      <c r="D130" s="0">
+        <v>4.2506669437754643e-09</v>
+      </c>
+      <c r="E130" s="0">
+        <v>-1.2883242886253965e-09</v>
+      </c>
+      <c r="F130" s="0">
+        <v>2.8432116999999999</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="B131" s="0">
+        <v>74</v>
+      </c>
+      <c r="C131" s="0">
+        <v>225</v>
+      </c>
+      <c r="D131" s="0">
+        <v>4.2058163548246094e-09</v>
+      </c>
+      <c r="E131" s="0">
+        <v>-1.2434736996745416e-09</v>
+      </c>
+      <c r="F131" s="0">
+        <v>3.0974892999999999</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="B132" s="0">
+        <v>72</v>
+      </c>
+      <c r="C132" s="0">
+        <v>62</v>
+      </c>
+      <c r="D132" s="0">
+        <v>4.2506669437754643e-09</v>
+      </c>
+      <c r="E132" s="0">
+        <v>-1.2883242886253965e-09</v>
+      </c>
+      <c r="F132" s="0">
+        <v>2.3939906</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>

--- a/result.xlsx
+++ b/result.xlsx
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="9438" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="9715" uniqueCount="12">
   <si>
     <t>name</t>
   </si>
@@ -411,7 +411,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H132"/>
+  <dimension ref="A1:H134"/>
   <sheetViews>
     <sheetView tabSelected="true" workbookViewId="0">
       <selection activeCell="I8" sqref="I8"/>
@@ -419,12 +419,12 @@
   </sheetViews>
   <sheetFormatPr xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="19.5703125" customWidth="true"/>
-    <col min="2" max="2" width="14.42578125" customWidth="true"/>
-    <col min="4" max="4" width="15.5703125" customWidth="true"/>
-    <col min="5" max="5" width="16.28515625" customWidth="true"/>
-    <col min="6" max="6" width="9.7109375" customWidth="true"/>
-    <col min="3" max="3" width="14.42578125" customWidth="true"/>
+    <col min="1" max="1" width="17.33203125" customWidth="true"/>
+    <col min="2" max="2" width="13.44140625" customWidth="true"/>
+    <col min="4" max="4" width="15.21875" customWidth="true"/>
+    <col min="5" max="5" width="15.88671875" customWidth="true"/>
+    <col min="6" max="6" width="9.5546875" customWidth="true"/>
+    <col min="3" max="3" width="13.44140625" customWidth="true"/>
   </cols>
   <sheetData>
     <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="1" x14ac:dyDescent="0.3">
@@ -3073,6 +3073,46 @@
         <v>2.3939906</v>
       </c>
     </row>
+    <row r="133">
+      <c r="A133" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="B133" s="0">
+        <v>57</v>
+      </c>
+      <c r="C133" s="0">
+        <v>39</v>
+      </c>
+      <c r="D133" s="0">
+        <v>2.9831507934698188e-09</v>
+      </c>
+      <c r="E133" s="0">
+        <v>-2.0808138319750958e-11</v>
+      </c>
+      <c r="F133" s="0">
+        <v>3.0523666</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="B134" s="0">
+        <v>74</v>
+      </c>
+      <c r="C134" s="0">
+        <v>189</v>
+      </c>
+      <c r="D134" s="0">
+        <v>4.2061385571024954e-09</v>
+      </c>
+      <c r="E134" s="0">
+        <v>-1.2437959019524276e-09</v>
+      </c>
+      <c r="F134" s="0">
+        <v>11.074483799999999</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/result.xlsx
+++ b/result.xlsx
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="9715" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="18130" uniqueCount="12">
   <si>
     <t>name</t>
   </si>
@@ -411,7 +411,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H134"/>
+  <dimension ref="A1:H185"/>
   <sheetViews>
     <sheetView tabSelected="true" workbookViewId="0">
       <selection activeCell="I8" sqref="I8"/>
@@ -419,12 +419,12 @@
   </sheetViews>
   <sheetFormatPr xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="17.33203125" customWidth="true"/>
-    <col min="2" max="2" width="13.44140625" customWidth="true"/>
-    <col min="4" max="4" width="15.21875" customWidth="true"/>
-    <col min="5" max="5" width="15.88671875" customWidth="true"/>
-    <col min="6" max="6" width="9.5546875" customWidth="true"/>
-    <col min="3" max="3" width="13.44140625" customWidth="true"/>
+    <col min="1" max="1" width="19.5703125" customWidth="true"/>
+    <col min="2" max="2" width="14.42578125" customWidth="true"/>
+    <col min="4" max="4" width="15.5703125" customWidth="true"/>
+    <col min="5" max="5" width="16.28515625" customWidth="true"/>
+    <col min="6" max="6" width="10.7109375" customWidth="true"/>
+    <col min="3" max="3" width="14.42578125" customWidth="true"/>
   </cols>
   <sheetData>
     <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="1" x14ac:dyDescent="0.3">
@@ -3113,6 +3113,1026 @@
         <v>11.074483799999999</v>
       </c>
     </row>
+    <row r="135">
+      <c r="A135" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="B135" s="0">
+        <v>39</v>
+      </c>
+      <c r="C135" s="0">
+        <v>93709.361643298369</v>
+      </c>
+      <c r="D135" s="0">
+        <v>2.1339599320979306e-08</v>
+      </c>
+      <c r="E135" s="0">
+        <v>-4.7514793144243387e-11</v>
+      </c>
+      <c r="F135" s="0">
+        <v>3.7550442999999998</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="B136" s="0">
+        <v>26</v>
+      </c>
+      <c r="C136" s="0">
+        <v>86766.625</v>
+      </c>
+      <c r="D136" s="0">
+        <v>2.198381851723402e-08</v>
+      </c>
+      <c r="E136" s="0">
+        <v>-6.9173398939895758e-10</v>
+      </c>
+      <c r="F136" s="0">
+        <v>7.9027950999999996</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="B137" s="0">
+        <v>8</v>
+      </c>
+      <c r="C137" s="0">
+        <v>38240.080857486224</v>
+      </c>
+      <c r="D137" s="0">
+        <v>2.150293561345799e-08</v>
+      </c>
+      <c r="E137" s="0">
+        <v>-2.1085108562292752e-10</v>
+      </c>
+      <c r="F137" s="0">
+        <v>3.6406003999999998</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="B138" s="0">
+        <v>26</v>
+      </c>
+      <c r="C138" s="0">
+        <v>86766.625</v>
+      </c>
+      <c r="D138" s="0">
+        <v>2.198381851723402e-08</v>
+      </c>
+      <c r="E138" s="0">
+        <v>-6.9173398939895758e-10</v>
+      </c>
+      <c r="F138" s="0">
+        <v>5.8177634999999999</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="B139" s="0">
+        <v>12</v>
+      </c>
+      <c r="C139" s="0">
+        <v>75135.401885835992</v>
+      </c>
+      <c r="D139" s="0">
+        <v>2.1605683606905181e-08</v>
+      </c>
+      <c r="E139" s="0">
+        <v>-3.1359907907011858e-10</v>
+      </c>
+      <c r="F139" s="0">
+        <v>4.4984244999999996</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="B140" s="0">
+        <v>26</v>
+      </c>
+      <c r="C140" s="0">
+        <v>86766.625</v>
+      </c>
+      <c r="D140" s="0">
+        <v>2.198381851723402e-08</v>
+      </c>
+      <c r="E140" s="0">
+        <v>-6.9173398939895758e-10</v>
+      </c>
+      <c r="F140" s="0">
+        <v>6.4571307999999998</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="B141" s="0">
+        <v>8</v>
+      </c>
+      <c r="C141" s="0">
+        <v>40339.086310778737</v>
+      </c>
+      <c r="D141" s="0">
+        <v>2.150349031836649e-08</v>
+      </c>
+      <c r="E141" s="0">
+        <v>-2.11405790531427e-10</v>
+      </c>
+      <c r="F141" s="0">
+        <v>3.7625275</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="B142" s="0">
+        <v>26</v>
+      </c>
+      <c r="C142" s="0">
+        <v>86766.625</v>
+      </c>
+      <c r="D142" s="0">
+        <v>2.198381851723402e-08</v>
+      </c>
+      <c r="E142" s="0">
+        <v>-6.9173398939895758e-10</v>
+      </c>
+      <c r="F142" s="0">
+        <v>5.2305653999999997</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="B143" s="0">
+        <v>109</v>
+      </c>
+      <c r="C143" s="0">
+        <v>49870.058876073737</v>
+      </c>
+      <c r="D143" s="0">
+        <v>2.2240808530978808e-08</v>
+      </c>
+      <c r="E143" s="0">
+        <v>-9.4872400314374504e-10</v>
+      </c>
+      <c r="F143" s="0">
+        <v>3.5641257999999998</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="B144" s="0">
+        <v>26</v>
+      </c>
+      <c r="C144" s="0">
+        <v>86766.625</v>
+      </c>
+      <c r="D144" s="0">
+        <v>2.198381851723402e-08</v>
+      </c>
+      <c r="E144" s="0">
+        <v>-6.9173398939895758e-10</v>
+      </c>
+      <c r="F144" s="0">
+        <v>6.3195442000000002</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="B145" s="0">
+        <v>38</v>
+      </c>
+      <c r="C145" s="0">
+        <v>98789.30801505089</v>
+      </c>
+      <c r="D145" s="0">
+        <v>2.1337034166756824e-08</v>
+      </c>
+      <c r="E145" s="0">
+        <v>-4.4949638921761369e-11</v>
+      </c>
+      <c r="F145" s="0">
+        <v>3.6464555999999999</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="B146" s="0">
+        <v>26</v>
+      </c>
+      <c r="C146" s="0">
+        <v>86766.625</v>
+      </c>
+      <c r="D146" s="0">
+        <v>2.198381851723402e-08</v>
+      </c>
+      <c r="E146" s="0">
+        <v>-6.9173398939895758e-10</v>
+      </c>
+      <c r="F146" s="0">
+        <v>7.0093084000000001</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="B147" s="0">
+        <v>7</v>
+      </c>
+      <c r="C147" s="0">
+        <v>38491.874868180479</v>
+      </c>
+      <c r="D147" s="0">
+        <v>2.1502908417034876e-08</v>
+      </c>
+      <c r="E147" s="0">
+        <v>-2.1082388919981325e-10</v>
+      </c>
+      <c r="F147" s="0">
+        <v>3.8149396000000002</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="B148" s="0">
+        <v>26</v>
+      </c>
+      <c r="C148" s="0">
+        <v>86766.625</v>
+      </c>
+      <c r="D148" s="0">
+        <v>2.198381851723402e-08</v>
+      </c>
+      <c r="E148" s="0">
+        <v>-6.9173398939895758e-10</v>
+      </c>
+      <c r="F148" s="0">
+        <v>5.3659467000000003</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="B149" s="0">
+        <v>7</v>
+      </c>
+      <c r="C149" s="0">
+        <v>44890.913479745395</v>
+      </c>
+      <c r="D149" s="0">
+        <v>2.1510716748455943e-08</v>
+      </c>
+      <c r="E149" s="0">
+        <v>-1.7418641508990052e-10</v>
+      </c>
+      <c r="F149" s="0">
+        <v>7.0354843000000002</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="B150" s="0">
+        <v>26</v>
+      </c>
+      <c r="C150" s="0">
+        <v>86766.625</v>
+      </c>
+      <c r="D150" s="0">
+        <v>2.198381851723402e-08</v>
+      </c>
+      <c r="E150" s="0">
+        <v>-6.4728818386797792e-10</v>
+      </c>
+      <c r="F150" s="0">
+        <v>14.207926499999999</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="B151" s="0">
+        <v>11</v>
+      </c>
+      <c r="C151" s="0">
+        <v>75134.698671152466</v>
+      </c>
+      <c r="D151" s="0">
+        <v>2.1605683606908196e-08</v>
+      </c>
+      <c r="E151" s="0">
+        <v>-2.6915327354215316e-10</v>
+      </c>
+      <c r="F151" s="0">
+        <v>3.7184455999999999</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="B152" s="0">
+        <v>26</v>
+      </c>
+      <c r="C152" s="0">
+        <v>86766.625</v>
+      </c>
+      <c r="D152" s="0">
+        <v>2.198381851723402e-08</v>
+      </c>
+      <c r="E152" s="0">
+        <v>-6.4728818386797792e-10</v>
+      </c>
+      <c r="F152" s="0">
+        <v>5.5890434999999998</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="B153" s="0">
+        <v>7</v>
+      </c>
+      <c r="C153" s="0">
+        <v>39043.010099370331</v>
+      </c>
+      <c r="D153" s="0">
+        <v>2.1502938916170765e-08</v>
+      </c>
+      <c r="E153" s="0">
+        <v>-1.6640858280472247e-10</v>
+      </c>
+      <c r="F153" s="0">
+        <v>4.0645544999999998</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="B154" s="0">
+        <v>8</v>
+      </c>
+      <c r="C154" s="0">
+        <v>23489.326130981244</v>
+      </c>
+      <c r="D154" s="0">
+        <v>2.156067833511725e-08</v>
+      </c>
+      <c r="E154" s="0">
+        <v>-2.2414800175120761e-10</v>
+      </c>
+      <c r="F154" s="0">
+        <v>6.2206697000000002</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="B155" s="0">
+        <v>38</v>
+      </c>
+      <c r="C155" s="0">
+        <v>63202.748616997538</v>
+      </c>
+      <c r="D155" s="0">
+        <v>2.1368633629747208e-08</v>
+      </c>
+      <c r="E155" s="0">
+        <v>-3.2103296381165615e-11</v>
+      </c>
+      <c r="F155" s="0">
+        <v>6.0928997999999996</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="B156" s="0">
+        <v>26</v>
+      </c>
+      <c r="C156" s="0">
+        <v>86766.625</v>
+      </c>
+      <c r="D156" s="0">
+        <v>2.198381851723402e-08</v>
+      </c>
+      <c r="E156" s="0">
+        <v>-6.4728818386797792e-10</v>
+      </c>
+      <c r="F156" s="0">
+        <v>8.0723117000000002</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="B157" s="0">
+        <v>38</v>
+      </c>
+      <c r="C157" s="0">
+        <v>74139.354893678406</v>
+      </c>
+      <c r="D157" s="0">
+        <v>2.1354721920806541e-08</v>
+      </c>
+      <c r="E157" s="0">
+        <v>-1.819158744049863e-11</v>
+      </c>
+      <c r="F157" s="0">
+        <v>4.2307829000000003</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="B158" s="0">
+        <v>26</v>
+      </c>
+      <c r="C158" s="0">
+        <v>86766.625</v>
+      </c>
+      <c r="D158" s="0">
+        <v>2.198381851723402e-08</v>
+      </c>
+      <c r="E158" s="0">
+        <v>-6.4728818386797792e-10</v>
+      </c>
+      <c r="F158" s="0">
+        <v>6.2622739999999997</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="B159" s="0">
+        <v>38</v>
+      </c>
+      <c r="C159" s="0">
+        <v>34453.500845981296</v>
+      </c>
+      <c r="D159" s="0">
+        <v>2.145308235853828e-08</v>
+      </c>
+      <c r="E159" s="0">
+        <v>-1.1655202517223741e-10</v>
+      </c>
+      <c r="F159" s="0">
+        <v>4.0844297999999997</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="B160" s="0">
+        <v>26</v>
+      </c>
+      <c r="C160" s="0">
+        <v>86766.625</v>
+      </c>
+      <c r="D160" s="0">
+        <v>2.198381851723402e-08</v>
+      </c>
+      <c r="E160" s="0">
+        <v>-6.4728818386797792e-10</v>
+      </c>
+      <c r="F160" s="0">
+        <v>5.9332478000000002</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="B161" s="0">
+        <v>205</v>
+      </c>
+      <c r="C161" s="0">
+        <v>71903.157635858312</v>
+      </c>
+      <c r="D161" s="0">
+        <v>2.2313342180918805e-08</v>
+      </c>
+      <c r="E161" s="0">
+        <v>-9.7681184755276282e-10</v>
+      </c>
+      <c r="F161" s="0">
+        <v>10.221170499999999</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="B162" s="0">
+        <v>198</v>
+      </c>
+      <c r="C162" s="0">
+        <v>42002.443935776988</v>
+      </c>
+      <c r="D162" s="0">
+        <v>2.2381796887587928e-08</v>
+      </c>
+      <c r="E162" s="0">
+        <v>-1.0452665542218854e-09</v>
+      </c>
+      <c r="F162" s="0">
+        <v>6.0903546999999998</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="B163" s="0">
+        <v>11</v>
+      </c>
+      <c r="C163" s="0">
+        <v>56905.090276259682</v>
+      </c>
+      <c r="D163" s="0">
+        <v>2.1623008826783728e-08</v>
+      </c>
+      <c r="E163" s="0">
+        <v>-2.8647849341768584e-10</v>
+      </c>
+      <c r="F163" s="0">
+        <v>4.187767</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="B164" s="0">
+        <v>26</v>
+      </c>
+      <c r="C164" s="0">
+        <v>86766.625</v>
+      </c>
+      <c r="D164" s="0">
+        <v>2.1986343591572816e-08</v>
+      </c>
+      <c r="E164" s="0">
+        <v>-6.4981325820677324e-10</v>
+      </c>
+      <c r="F164" s="0">
+        <v>5.8801164000000004</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="B165" s="0">
+        <v>38</v>
+      </c>
+      <c r="C165" s="0">
+        <v>89879.274845174223</v>
+      </c>
+      <c r="D165" s="0">
+        <v>2.1344356362998302e-08</v>
+      </c>
+      <c r="E165" s="0">
+        <v>-7.8260296322597556e-12</v>
+      </c>
+      <c r="F165" s="0">
+        <v>46.376918600000003</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="B166" s="0">
+        <v>12</v>
+      </c>
+      <c r="C166" s="0">
+        <v>74291.625</v>
+      </c>
+      <c r="D166" s="0">
+        <v>2.1614367255949344e-08</v>
+      </c>
+      <c r="E166" s="0">
+        <v>-2.7783692258330147e-10</v>
+      </c>
+      <c r="F166" s="0">
+        <v>7.9355703000000002</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="B167" s="0">
+        <v>38</v>
+      </c>
+      <c r="C167" s="0">
+        <v>78340.195336260542</v>
+      </c>
+      <c r="D167" s="0">
+        <v>2.135305749599177e-08</v>
+      </c>
+      <c r="E167" s="0">
+        <v>-1.6527162625727595e-11</v>
+      </c>
+      <c r="F167" s="0">
+        <v>3.5248053000000001</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="B168" s="0">
+        <v>12</v>
+      </c>
+      <c r="C168" s="0">
+        <v>74291.625</v>
+      </c>
+      <c r="D168" s="0">
+        <v>2.1614367255949344e-08</v>
+      </c>
+      <c r="E168" s="0">
+        <v>-2.7783692258330147e-10</v>
+      </c>
+      <c r="F168" s="0">
+        <v>6.1544435000000002</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="B169" s="0">
+        <v>7</v>
+      </c>
+      <c r="C169" s="0">
+        <v>42630.427454949444</v>
+      </c>
+      <c r="D169" s="0">
+        <v>2.1506098318167253e-08</v>
+      </c>
+      <c r="E169" s="0">
+        <v>-1.6956798480121018e-10</v>
+      </c>
+      <c r="F169" s="0">
+        <v>3.8315508999999999</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="B170" s="0">
+        <v>38</v>
+      </c>
+      <c r="C170" s="0">
+        <v>77642.169078358114</v>
+      </c>
+      <c r="D170" s="0">
+        <v>2.1351253084776548e-08</v>
+      </c>
+      <c r="E170" s="0">
+        <v>-1.4722751410505666e-11</v>
+      </c>
+      <c r="F170" s="0">
+        <v>3.8575162000000001</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="B171" s="0">
+        <v>26</v>
+      </c>
+      <c r="C171" s="0">
+        <v>86766.625</v>
+      </c>
+      <c r="D171" s="0">
+        <v>2.198381851723402e-08</v>
+      </c>
+      <c r="E171" s="0">
+        <v>-6.4728818386797792e-10</v>
+      </c>
+      <c r="F171" s="0">
+        <v>5.3899885000000003</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="B172" s="0">
+        <v>38</v>
+      </c>
+      <c r="C172" s="0">
+        <v>65586.433883899765</v>
+      </c>
+      <c r="D172" s="0">
+        <v>2.1365135414469176e-08</v>
+      </c>
+      <c r="E172" s="0">
+        <v>-2.8605081103132998e-11</v>
+      </c>
+      <c r="F172" s="0">
+        <v>26.288440900000001</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="B173" s="0">
+        <v>26</v>
+      </c>
+      <c r="C173" s="0">
+        <v>86766.625</v>
+      </c>
+      <c r="D173" s="0">
+        <v>2.198381851723402e-08</v>
+      </c>
+      <c r="E173" s="0">
+        <v>-6.4728818386797792e-10</v>
+      </c>
+      <c r="F173" s="0">
+        <v>5.5270153999999998</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="B174" s="0">
+        <v>38</v>
+      </c>
+      <c r="C174" s="0">
+        <v>10099.125534024572</v>
+      </c>
+      <c r="D174" s="0">
+        <v>2.1893055217662186e-08</v>
+      </c>
+      <c r="E174" s="0">
+        <v>-5.5652488429614354e-10</v>
+      </c>
+      <c r="F174" s="0">
+        <v>29.345668400000001</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="B175" s="0">
+        <v>11</v>
+      </c>
+      <c r="C175" s="0">
+        <v>77002.852294960059</v>
+      </c>
+      <c r="D175" s="0">
+        <v>2.1881087064463602e-08</v>
+      </c>
+      <c r="E175" s="0">
+        <v>-5.4455673109755922e-10</v>
+      </c>
+      <c r="F175" s="0">
+        <v>4.6969513000000003</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="B176" s="0">
+        <v>38</v>
+      </c>
+      <c r="C176" s="0">
+        <v>44300.321342188319</v>
+      </c>
+      <c r="D176" s="0">
+        <v>2.141362445315615e-08</v>
+      </c>
+      <c r="E176" s="0">
+        <v>-7.4525143258804594e-11</v>
+      </c>
+      <c r="F176" s="0">
+        <v>3.4550923999999998</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="B177" s="0">
+        <v>12</v>
+      </c>
+      <c r="C177" s="0">
+        <v>74291.625</v>
+      </c>
+      <c r="D177" s="0">
+        <v>2.1614367255949344e-08</v>
+      </c>
+      <c r="E177" s="0">
+        <v>-2.7526794605199865e-10</v>
+      </c>
+      <c r="F177" s="0">
+        <v>5.6413570000000002</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="B178" s="0">
+        <v>38</v>
+      </c>
+      <c r="C178" s="0">
+        <v>74711.849380949425</v>
+      </c>
+      <c r="D178" s="0">
+        <v>2.1354126970615929e-08</v>
+      </c>
+      <c r="E178" s="0">
+        <v>-6.2042442780865866e-11</v>
+      </c>
+      <c r="F178" s="0">
+        <v>3.6429806</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="B179" s="0">
+        <v>26</v>
+      </c>
+      <c r="C179" s="0">
+        <v>86766.625</v>
+      </c>
+      <c r="D179" s="0">
+        <v>2.198381851723402e-08</v>
+      </c>
+      <c r="E179" s="0">
+        <v>-6.9173398939895758e-10</v>
+      </c>
+      <c r="F179" s="0">
+        <v>5.0846651999999999</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="B180" s="0">
+        <v>38</v>
+      </c>
+      <c r="C180" s="0">
+        <v>58604.219045904822</v>
+      </c>
+      <c r="D180" s="0">
+        <v>2.1376298892051876e-08</v>
+      </c>
+      <c r="E180" s="0">
+        <v>-8.4214364216813368e-11</v>
+      </c>
+      <c r="F180" s="0">
+        <v>3.4074452000000002</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="B181" s="0">
+        <v>26</v>
+      </c>
+      <c r="C181" s="0">
+        <v>86766.625</v>
+      </c>
+      <c r="D181" s="0">
+        <v>2.198381851723402e-08</v>
+      </c>
+      <c r="E181" s="0">
+        <v>-6.9173398939895758e-10</v>
+      </c>
+      <c r="F181" s="0">
+        <v>5.1514651999999996</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="B182" s="0">
+        <v>7</v>
+      </c>
+      <c r="C182" s="0">
+        <v>19268.270807120021</v>
+      </c>
+      <c r="D182" s="0">
+        <v>2.1610187073424362e-08</v>
+      </c>
+      <c r="E182" s="0">
+        <v>-2.7365674005831998e-10</v>
+      </c>
+      <c r="F182" s="0">
+        <v>3.5156122999999999</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="B183" s="0">
+        <v>26</v>
+      </c>
+      <c r="C183" s="0">
+        <v>86766.625</v>
+      </c>
+      <c r="D183" s="0">
+        <v>2.198381851723402e-08</v>
+      </c>
+      <c r="E183" s="0">
+        <v>-6.4728818386797792e-10</v>
+      </c>
+      <c r="F183" s="0">
+        <v>5.2011504000000004</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="B184" s="0">
+        <v>38</v>
+      </c>
+      <c r="C184" s="0">
+        <v>84012.432138364893</v>
+      </c>
+      <c r="D184" s="0">
+        <v>2.1345886439972221e-08</v>
+      </c>
+      <c r="E184" s="0">
+        <v>-9.3561066061783431e-12</v>
+      </c>
+      <c r="F184" s="0">
+        <v>3.4390209</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="B185" s="0">
+        <v>26</v>
+      </c>
+      <c r="C185" s="0">
+        <v>86766.625</v>
+      </c>
+      <c r="D185" s="0">
+        <v>2.198381851723402e-08</v>
+      </c>
+      <c r="E185" s="0">
+        <v>-6.4728818386797792e-10</v>
+      </c>
+      <c r="F185" s="0">
+        <v>6.4624439999999996</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
